--- a/public/asset/TEMPLATE USULAN PPKS V.1.xlsx
+++ b/public/asset/TEMPLATE USULAN PPKS V.1.xlsx
@@ -530,7 +530,7 @@
   <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,6 +896,12 @@
       <c r="E81" s="5"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="NIK" error="Jumlah Nik harus 16 karakter" sqref="B2:B81">
+      <formula1>16</formula1>
+      <formula2>16</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
